--- a/CallForPaper/Program.xlsx
+++ b/CallForPaper/Program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanrui/Homework/张颖外包/ITC-Asia2021/CallForPaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDFC8A5-997B-F14E-83DF-8B8B53D72ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECE917E-8931-4B48-9967-96DF96E12FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{75F74B88-8F57-144D-9F2F-37568B6D5F71}"/>
   </bookViews>
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
